--- a/individual_case_outputs/avey/22.xlsx
+++ b/individual_case_outputs/avey/22.xlsx
@@ -714,7 +714,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>myelodysplastic syndrome</t>
+          <t>myeloproliferative neoplasm</t>
         </is>
       </c>
     </row>
